--- a/Automotive/x_Automotive.xlsx
+++ b/Automotive/x_Automotive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Automotive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B588219-0B9C-433E-AB91-7C036629C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD74827-34FB-45BC-B792-F51018242817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t>Company Name</t>
   </si>
@@ -318,12 +318,21 @@
   </si>
   <si>
     <t>PE0</t>
+  </si>
+  <si>
+    <t>EV Anteil</t>
+  </si>
+  <si>
+    <t>EV Ziel 2030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -425,6 +434,8 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2289,35 +2300,35 @@
         <v>1.29</v>
       </c>
       <c r="J28" s="6">
-        <f>X28/W28-1</f>
+        <f t="shared" ref="J28:J36" si="17">X28/W28-1</f>
         <v>-1.2269938650306678E-2</v>
       </c>
       <c r="K28" s="6">
-        <f>Y28/X28-1</f>
+        <f t="shared" ref="K28:K36" si="18">Y28/X28-1</f>
         <v>0.13664596273291929</v>
       </c>
       <c r="L28" s="5" t="e">
-        <f>U28/T28-1</f>
+        <f t="shared" ref="L28:L36" si="19">U28/T28-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="5" t="e">
-        <f>V28/U28-1</f>
+        <f t="shared" ref="M28:M36" si="20">V28/U28-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="4" t="e">
-        <f>I28/T28</f>
+        <f t="shared" ref="N28:N36" si="21">I28/T28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="4" t="e">
-        <f>I28/U28</f>
+        <f t="shared" ref="O28:O36" si="22">I28/U28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="4" t="e">
-        <f>N28/L28/100</f>
+        <f t="shared" ref="P28:P36" si="23">N28/L28/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="4" t="e">
-        <f>O28/M28/100</f>
+        <f t="shared" ref="Q28:Q36" si="24">O28/M28/100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="4"/>
@@ -2350,35 +2361,35 @@
         <v>196.1</v>
       </c>
       <c r="J29" s="6">
-        <f>X29/W29-1</f>
+        <f t="shared" si="17"/>
         <v>1.6751990898748583</v>
       </c>
       <c r="K29" s="6">
-        <f>Y29/X29-1</f>
+        <f t="shared" si="18"/>
         <v>3.678503083138418E-2</v>
       </c>
       <c r="L29" s="5" t="e">
-        <f>U29/T29-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M29" s="5" t="e">
-        <f>V29/U29-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="4" t="e">
-        <f>I29/T29</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="4" t="e">
-        <f>I29/U29</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="4" t="e">
-        <f>N29/L29/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="4" t="e">
-        <f>O29/M29/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="4"/>
@@ -2411,35 +2422,35 @@
         <v>28.65</v>
       </c>
       <c r="J30" s="6">
-        <f>X30/W30-1</f>
+        <f t="shared" si="17"/>
         <v>3.7312775330396475</v>
       </c>
       <c r="K30" s="6">
-        <f>Y30/X30-1</f>
+        <f t="shared" si="18"/>
         <v>5.1210428305399347E-3</v>
       </c>
       <c r="L30" s="5" t="e">
-        <f>U30/T30-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M30" s="5" t="e">
-        <f>V30/U30-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f>I30/T30</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="4" t="e">
-        <f>I30/U30</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="4" t="e">
-        <f>N30/L30/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="4" t="e">
-        <f>O30/M30/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="4"/>
@@ -2472,35 +2483,35 @@
         <v>10.7</v>
       </c>
       <c r="J31" s="6" t="e">
-        <f>X31/W31-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="6" t="e">
-        <f>Y31/X31-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L31" s="5" t="e">
-        <f>U31/T31-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="5" t="e">
-        <f>V31/U31-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f>I31/T31</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="4" t="e">
-        <f>I31/U31</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="4" t="e">
-        <f>N31/L31/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="4" t="e">
-        <f>O31/M31/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="4"/>
@@ -2527,35 +2538,35 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="J32" s="6" t="e">
-        <f>X32/W32-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="6" t="e">
-        <f>Y32/X32-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="5" t="e">
-        <f>U32/T32-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="5" t="e">
-        <f>V32/U32-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f>I32/T32</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="4" t="e">
-        <f>I32/U32</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="4" t="e">
-        <f>N32/L32/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="4" t="e">
-        <f>O32/M32/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="4"/>
@@ -2582,35 +2593,35 @@
         <v>2.92</v>
       </c>
       <c r="J33" s="6" t="e">
-        <f>X33/W33-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="6" t="e">
-        <f>Y33/X33-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="5" t="e">
-        <f>U33/T33-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="5" t="e">
-        <f>V33/U33-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="4" t="e">
-        <f>I33/T33</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="4" t="e">
-        <f>I33/U33</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="4" t="e">
-        <f>N33/L33/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q33" s="4" t="e">
-        <f>O33/M33/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="4"/>
@@ -2637,35 +2648,35 @@
         <v>3.41</v>
       </c>
       <c r="J34" s="6" t="e">
-        <f>X34/W34-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="6" t="e">
-        <f>Y34/X34-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="5" t="e">
-        <f>U34/T34-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="5" t="e">
-        <f>V34/U34-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="4" t="e">
-        <f>I34/T34</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="4" t="e">
-        <f>I34/U34</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="4" t="e">
-        <f>N34/L34/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" s="4" t="e">
-        <f>O34/M34/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="4"/>
@@ -2692,35 +2703,35 @@
         <v>9.42</v>
       </c>
       <c r="J35" s="6" t="e">
-        <f>X35/W35-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="6" t="e">
-        <f>Y35/X35-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L35" s="5" t="e">
-        <f>U35/T35-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="5" t="e">
-        <f>V35/U35-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="4" t="e">
-        <f>I35/T35</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="4" t="e">
-        <f>I35/U35</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="4" t="e">
-        <f>N35/L35/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q35" s="4" t="e">
-        <f>O35/M35/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="4"/>
@@ -2747,35 +2758,35 @@
         <v>4.13</v>
       </c>
       <c r="J36" s="6" t="e">
-        <f>X36/W36-1</f>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="6" t="e">
-        <f>Y36/X36-1</f>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="5" t="e">
-        <f>U36/T36-1</f>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="5" t="e">
-        <f>V36/U36-1</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="4" t="e">
-        <f>I36/T36</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
-        <f>I36/U36</f>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="4" t="e">
-        <f>N36/L36/100</f>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="4" t="e">
-        <f>O36/M36/100</f>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="4"/>
@@ -2792,10 +2803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD66DEE1-784C-4D0B-878F-C50F592A5350}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2814,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2862,28 +2873,34 @@
         <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2900,58 +2917,67 @@
         <v>76.42</v>
       </c>
       <c r="J2" s="6">
-        <f>Y2/X2-1</f>
+        <f t="shared" ref="J2:K4" si="0">AA2/Z2-1</f>
         <v>-4.3858520900321496E-2</v>
       </c>
       <c r="K2" s="6">
-        <f>Z2/Y2-1</f>
+        <f t="shared" si="0"/>
         <v>8.6763518966908038E-3</v>
       </c>
       <c r="L2" s="5">
-        <f>V2/U2-1</f>
+        <f t="shared" ref="L2:M4" si="1">X2/W2-1</f>
         <v>-0.26542161856253543</v>
       </c>
       <c r="M2" s="5">
-        <f>W2/V2-1</f>
+        <f t="shared" si="1"/>
         <v>5.6240369799691825E-2</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="4">
-        <f>I2/U2</f>
+        <f>I2/W2</f>
         <v>4.3248443689869829</v>
       </c>
       <c r="P2" s="4">
-        <f>I2/V2</f>
+        <f>I2/X2</f>
         <v>5.8875192604006159</v>
       </c>
       <c r="Q2" s="4">
-        <f>O2/L2/100</f>
+        <f t="shared" ref="Q2:R4" si="2">O2/L2/100</f>
         <v>-0.16294243070362466</v>
       </c>
       <c r="R2" s="4">
-        <f>P2/M2/100</f>
+        <f t="shared" si="2"/>
         <v>1.0468493150684932</v>
       </c>
-      <c r="U2" s="4">
+      <c r="S2" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T2" s="13">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W2" s="4">
         <v>17.670000000000002</v>
       </c>
-      <c r="V2" s="4">
+      <c r="X2" s="4">
         <v>12.98</v>
       </c>
-      <c r="W2" s="4">
+      <c r="Y2" s="4">
         <v>13.71</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Z2" s="4">
         <v>155.5</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AA2" s="4">
         <v>148.68</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AB2" s="4">
         <v>149.97</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -2968,58 +2994,63 @@
         <v>86.94</v>
       </c>
       <c r="J3" s="6">
-        <f>Y3/X3-1</f>
+        <f t="shared" si="0"/>
         <v>-6.2368127094452053E-3</v>
       </c>
       <c r="K3" s="6">
-        <f>Z3/Y3-1</f>
+        <f t="shared" si="0"/>
         <v>1.7922377993567995E-2</v>
       </c>
       <c r="L3" s="5">
-        <f>V3/U3-1</f>
+        <f t="shared" si="1"/>
         <v>-0.31425891181988741</v>
       </c>
       <c r="M3" s="5">
-        <f>W3/V3-1</f>
+        <f t="shared" si="1"/>
         <v>0.14272685818513442</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="4">
-        <f>I3/U3</f>
+        <f>I3/W3</f>
         <v>2.7185741088180113</v>
       </c>
       <c r="P3" s="4">
-        <f>I3/V3</f>
+        <f>I3/X3</f>
         <v>3.9644322845417235</v>
       </c>
       <c r="Q3" s="4">
-        <f>O3/L3/100</f>
+        <f t="shared" si="2"/>
         <v>-8.6507462686567185E-2</v>
       </c>
       <c r="R3" s="4">
-        <f>P3/M3/100</f>
+        <f t="shared" si="2"/>
         <v>0.27776357827476056</v>
       </c>
-      <c r="U3" s="4">
+      <c r="S3" s="14"/>
+      <c r="T3" s="13">
+        <v>0.128</v>
+      </c>
+      <c r="U3" s="14"/>
+      <c r="W3" s="4">
         <v>31.98</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="4">
         <v>21.93</v>
       </c>
-      <c r="W3" s="4">
+      <c r="Y3" s="4">
         <v>25.06</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>322.27999999999997</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AA3" s="4">
         <v>320.27</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <v>326.01</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3036,58 +3067,61 @@
         <v>52.45</v>
       </c>
       <c r="J4" s="6">
-        <f>Y4/X4-1</f>
+        <f t="shared" si="0"/>
         <v>-4.7382848192142002E-2</v>
       </c>
       <c r="K4" s="6">
-        <f>Z4/Y4-1</f>
+        <f t="shared" si="0"/>
         <v>-1.2332145793368943E-3</v>
       </c>
       <c r="L4" s="5">
-        <f>V4/U4-1</f>
+        <f t="shared" si="1"/>
         <v>-0.29364499634769903</v>
       </c>
       <c r="M4" s="5">
-        <f>W4/V4-1</f>
+        <f t="shared" si="1"/>
         <v>-4.0330920372285473E-2</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4">
-        <f>I4/U4</f>
+        <f>I4/W4</f>
         <v>3.8312636961285613</v>
       </c>
       <c r="P4" s="4">
-        <f>I4/V4</f>
+        <f>I4/X4</f>
         <v>5.4239917269906934</v>
       </c>
       <c r="Q4" s="4">
-        <f>O4/L4/100</f>
+        <f t="shared" si="2"/>
         <v>-0.13047263681592042</v>
       </c>
       <c r="R4" s="4">
-        <f>P4/M4/100</f>
+        <f t="shared" si="2"/>
         <v>-1.3448717948717934</v>
       </c>
-      <c r="U4" s="4">
+      <c r="S4" s="14"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="4">
         <v>13.69</v>
       </c>
-      <c r="V4" s="4">
+      <c r="X4" s="4">
         <v>9.67</v>
       </c>
-      <c r="W4" s="4">
+      <c r="Y4" s="4">
         <v>9.2799999999999994</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>153.22</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AA4" s="4">
         <v>145.96</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>145.78</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3156,26 +3190,33 @@
         <f>[1]Main!$C$19</f>
         <v>1.7370082995560685</v>
       </c>
-      <c r="U5" s="4">
+      <c r="S5" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="W5" s="4">
         <v>5.67</v>
       </c>
-      <c r="V5" s="4">
+      <c r="X5" s="4">
         <v>4.32</v>
       </c>
-      <c r="W5" s="4">
+      <c r="Y5" s="4">
         <v>5.03</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <v>40.53</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AA5" s="4">
         <v>39.04</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>40.98</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3192,58 +3233,61 @@
         <v>416.88</v>
       </c>
       <c r="J6" s="6">
-        <f>Y6/X6-1</f>
+        <f t="shared" ref="J6:J14" si="3">AA6/Z6-1</f>
         <v>0.10887772194304857</v>
       </c>
       <c r="K6" s="6">
-        <f>Z6/Y6-1</f>
+        <f t="shared" ref="K6:K14" si="4">AB6/AA6-1</f>
         <v>7.8549848942598199E-2</v>
       </c>
       <c r="L6" s="5">
-        <f>V6/U6-1</f>
+        <f t="shared" ref="L6:L14" si="5">X6/W6-1</f>
         <v>0.17826086956521747</v>
       </c>
       <c r="M6" s="5">
-        <f>W6/V6-1</f>
+        <f t="shared" ref="M6:M14" si="6">Y6/X6-1</f>
         <v>0.10332103321033204</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="4">
-        <f>I6/U6</f>
+        <f t="shared" ref="O6:O14" si="7">I6/W6</f>
         <v>60.417391304347824</v>
       </c>
       <c r="P6" s="4">
-        <f>I6/V6</f>
+        <f t="shared" ref="P6:P14" si="8">I6/X6</f>
         <v>51.276752767527668</v>
       </c>
       <c r="Q6" s="4">
-        <f>O6/L6/100</f>
+        <f t="shared" ref="Q6:Q14" si="9">O6/L6/100</f>
         <v>3.3892682926829254</v>
       </c>
       <c r="R6" s="4">
-        <f>P6/M6/100</f>
+        <f t="shared" ref="R6:R14" si="10">P6/M6/100</f>
         <v>4.9628571428571453</v>
       </c>
-      <c r="U6" s="4">
+      <c r="S6" s="14"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="W6" s="4">
         <v>6.9</v>
       </c>
-      <c r="V6" s="4">
+      <c r="X6" s="4">
         <v>8.1300000000000008</v>
       </c>
-      <c r="W6" s="4">
+      <c r="Y6" s="4">
         <v>8.9700000000000006</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Z6" s="4">
         <v>5.97</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AA6" s="4">
         <v>6.62</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AB6" s="4">
         <v>7.14</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3260,58 +3304,61 @@
         <v>7.27</v>
       </c>
       <c r="J7" s="6">
-        <f>Y7/X7-1</f>
+        <f t="shared" si="3"/>
         <v>0.11291369240752758</v>
       </c>
       <c r="K7" s="6">
-        <f>Z7/Y7-1</f>
+        <f t="shared" si="4"/>
         <v>7.9300291545189694E-2</v>
       </c>
       <c r="L7" s="5">
-        <f>V7/U7-1</f>
+        <f t="shared" si="5"/>
         <v>0.23529411764705865</v>
       </c>
       <c r="M7" s="5">
-        <f>W7/V7-1</f>
+        <f t="shared" si="6"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4">
-        <f>I7/U7</f>
+        <f t="shared" si="7"/>
         <v>42.764705882352935</v>
       </c>
       <c r="P7" s="4">
-        <f>I7/V7</f>
+        <f t="shared" si="8"/>
         <v>34.61904761904762</v>
       </c>
       <c r="Q7" s="4">
-        <f>O7/L7/100</f>
+        <f t="shared" si="9"/>
         <v>1.8175000000000012</v>
       </c>
       <c r="R7" s="4">
-        <f>P7/M7/100</f>
+        <f t="shared" si="10"/>
         <v>1.8175000000000003</v>
       </c>
-      <c r="U7" s="4">
+      <c r="S7" s="14"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="4">
         <v>0.17</v>
       </c>
-      <c r="V7" s="4">
+      <c r="X7" s="4">
         <v>0.21</v>
       </c>
-      <c r="W7" s="4">
+      <c r="Y7" s="4">
         <v>0.25</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Z7" s="4">
         <v>15.41</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="AA7" s="4">
         <v>17.149999999999999</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3328,58 +3375,61 @@
         <v>16.489999999999998</v>
       </c>
       <c r="J8" s="6">
-        <f>Y8/X8-1</f>
+        <f t="shared" si="3"/>
         <v>4.7404063205417568E-2</v>
       </c>
       <c r="K8" s="6">
-        <f>Z8/Y8-1</f>
+        <f t="shared" si="4"/>
         <v>0.12284482758620707</v>
       </c>
       <c r="L8" s="5">
-        <f>V8/U8-1</f>
+        <f t="shared" si="5"/>
         <v>-0.17622950819672134</v>
       </c>
       <c r="M8" s="5">
-        <f>W8/V8-1</f>
+        <f t="shared" si="6"/>
         <v>-0.32835820895522372</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4">
-        <f>I8/U8</f>
+        <f t="shared" si="7"/>
         <v>-3.3790983606557377</v>
       </c>
       <c r="P8" s="4">
-        <f>I8/V8</f>
+        <f t="shared" si="8"/>
         <v>-4.1019900497512438</v>
       </c>
       <c r="Q8" s="4">
-        <f>O8/L8/100</f>
+        <f t="shared" si="9"/>
         <v>0.19174418604651158</v>
       </c>
       <c r="R8" s="4">
-        <f>P8/M8/100</f>
+        <f t="shared" si="10"/>
         <v>0.12492424242424249</v>
       </c>
-      <c r="U8" s="4">
+      <c r="S8" s="14"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="W8" s="4">
         <v>-4.88</v>
       </c>
-      <c r="V8" s="4">
+      <c r="X8" s="4">
         <v>-4.0199999999999996</v>
       </c>
-      <c r="W8" s="4">
+      <c r="Y8" s="4">
         <v>-2.7</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Z8" s="4">
         <v>4.43</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AA8" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>5.21</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3396,58 +3446,61 @@
         <v>67.34</v>
       </c>
       <c r="J9" s="6">
-        <f>Y9/X9-1</f>
+        <f t="shared" si="3"/>
         <v>0.26368043564882448</v>
       </c>
       <c r="K9" s="6">
-        <f>Z9/Y9-1</f>
+        <f t="shared" si="4"/>
         <v>0.21080221772604268</v>
       </c>
       <c r="L9" s="5">
-        <f>V9/U9-1</f>
+        <f t="shared" si="5"/>
         <v>0.39483394833948338</v>
       </c>
       <c r="M9" s="5">
-        <f>W9/V9-1</f>
+        <f t="shared" si="6"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4">
-        <f>I9/U9</f>
+        <f t="shared" si="7"/>
         <v>24.848708487084874</v>
       </c>
       <c r="P9" s="4">
-        <f>I9/V9</f>
+        <f t="shared" si="8"/>
         <v>17.814814814814817</v>
       </c>
       <c r="Q9" s="4">
-        <f>O9/L9/100</f>
+        <f t="shared" si="9"/>
         <v>0.62934579439252347</v>
       </c>
       <c r="R9" s="4">
-        <f>P9/M9/100</f>
+        <f t="shared" si="10"/>
         <v>1.2025000000000001</v>
       </c>
-      <c r="U9" s="4">
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="W9" s="4">
         <v>2.71</v>
       </c>
-      <c r="V9" s="4">
+      <c r="X9" s="4">
         <v>3.78</v>
       </c>
-      <c r="W9" s="4">
+      <c r="Y9" s="4">
         <v>4.34</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Z9" s="4">
         <v>602.32000000000005</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AA9" s="4">
         <v>761.14</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <v>921.59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3464,58 +3517,61 @@
         <v>4.63</v>
       </c>
       <c r="J10" s="6">
-        <f>Y10/X10-1</f>
+        <f t="shared" si="3"/>
         <v>0.23247033441208198</v>
       </c>
       <c r="K10" s="6">
-        <f>Z10/Y10-1</f>
+        <f t="shared" si="4"/>
         <v>0.43092633114514967</v>
       </c>
       <c r="L10" s="5">
-        <f>V10/U10-1</f>
+        <f t="shared" si="5"/>
         <v>-0.13339466421343138</v>
       </c>
       <c r="M10" s="5">
-        <f>W10/V10-1</f>
+        <f t="shared" si="6"/>
         <v>-0.19639065817409762</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4">
-        <f>I10/U10</f>
+        <f t="shared" si="7"/>
         <v>-0.42594296228150874</v>
       </c>
       <c r="P10" s="4">
-        <f>I10/V10</f>
+        <f t="shared" si="8"/>
         <v>-0.49150743099787686</v>
       </c>
       <c r="Q10" s="4">
-        <f>O10/L10/100</f>
+        <f t="shared" si="9"/>
         <v>3.1931034482758643E-2</v>
       </c>
       <c r="R10" s="4">
-        <f>P10/M10/100</f>
+        <f t="shared" si="10"/>
         <v>2.5027027027027034E-2</v>
       </c>
-      <c r="U10" s="4">
+      <c r="S10" s="14"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="W10" s="4">
         <v>-10.87</v>
       </c>
-      <c r="V10" s="4">
+      <c r="X10" s="4">
         <v>-9.42</v>
       </c>
-      <c r="W10" s="4">
+      <c r="Y10" s="4">
         <v>-7.57</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Z10" s="4">
         <v>55.62</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="AA10" s="4">
         <v>68.55</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>98.09</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3532,58 +3588,61 @@
         <v>412.1</v>
       </c>
       <c r="J11" s="6">
-        <f>Y11/X11-1</f>
+        <f t="shared" si="3"/>
         <v>2.9554614033274751E-2</v>
       </c>
       <c r="K11" s="6">
-        <f>Z11/Y11-1</f>
+        <f t="shared" si="4"/>
         <v>0.16340459700893306</v>
       </c>
       <c r="L11" s="5">
-        <f>V11/U11-1</f>
+        <f t="shared" si="5"/>
         <v>-0.20512820512820518</v>
       </c>
       <c r="M11" s="5">
-        <f>W11/V11-1</f>
+        <f t="shared" si="6"/>
         <v>0.31451612903225801</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4">
-        <f>I11/U11</f>
+        <f t="shared" si="7"/>
         <v>132.08333333333334</v>
       </c>
       <c r="P11" s="4">
-        <f>I11/V11</f>
+        <f t="shared" si="8"/>
         <v>166.16935483870969</v>
       </c>
       <c r="Q11" s="4">
-        <f>O11/L11/100</f>
+        <f t="shared" si="9"/>
         <v>-6.4390624999999986</v>
       </c>
       <c r="R11" s="4">
-        <f>P11/M11/100</f>
+        <f t="shared" si="10"/>
         <v>5.283333333333335</v>
       </c>
-      <c r="U11" s="4">
+      <c r="S11" s="14"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="W11" s="4">
         <v>3.12</v>
       </c>
-      <c r="V11" s="4">
+      <c r="X11" s="4">
         <v>2.48</v>
       </c>
-      <c r="W11" s="4">
+      <c r="Y11" s="4">
         <v>3.26</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Z11" s="4">
         <v>96.77</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="AA11" s="4">
         <v>99.63</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>115.91</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3600,58 +3659,61 @@
         <v>3.29</v>
       </c>
       <c r="J12" s="6">
-        <f>Y12/X12-1</f>
+        <f t="shared" si="3"/>
         <v>0.29017084684260941</v>
       </c>
       <c r="K12" s="6">
-        <f>Z12/Y12-1</f>
+        <f t="shared" si="4"/>
         <v>1.200520833333333</v>
       </c>
       <c r="L12" s="5">
-        <f>V12/U12-1</f>
+        <f t="shared" si="5"/>
         <v>-0.20863309352517978</v>
       </c>
       <c r="M12" s="5">
-        <f>W12/V12-1</f>
+        <f t="shared" si="6"/>
         <v>-0.20000000000000007</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="4">
-        <f>I12/U12</f>
+        <f t="shared" si="7"/>
         <v>-2.3669064748201443</v>
       </c>
       <c r="P12" s="4">
-        <f>I12/V12</f>
+        <f t="shared" si="8"/>
         <v>-2.9909090909090907</v>
       </c>
       <c r="Q12" s="4">
-        <f>O12/L12/100</f>
+        <f t="shared" si="9"/>
         <v>0.11344827586206901</v>
       </c>
       <c r="R12" s="4">
-        <f>P12/M12/100</f>
+        <f t="shared" si="10"/>
         <v>0.14954545454545448</v>
       </c>
-      <c r="U12" s="4">
+      <c r="S12" s="14"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="W12" s="4">
         <v>-1.39</v>
       </c>
-      <c r="V12" s="4">
+      <c r="X12" s="4">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="W12" s="4">
+      <c r="Y12" s="4">
         <v>-0.88</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Z12" s="4">
         <v>0.59526999999999997</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="AA12" s="4">
         <v>0.76800000000000002</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>1.69</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3668,58 +3730,61 @@
         <v>24.75</v>
       </c>
       <c r="J13" s="6">
-        <f>Y13/X13-1</f>
+        <f t="shared" si="3"/>
         <v>0.18094469115865963</v>
       </c>
       <c r="K13" s="6">
-        <f>Z13/Y13-1</f>
+        <f t="shared" si="4"/>
         <v>0.33064405852591294</v>
       </c>
       <c r="L13" s="5">
-        <f>V13/U13-1</f>
+        <f t="shared" si="5"/>
         <v>-0.25130890052356025</v>
       </c>
       <c r="M13" s="5">
-        <f>W13/V13-1</f>
+        <f t="shared" si="6"/>
         <v>0.34265734265734249</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="4">
-        <f>I13/U13</f>
+        <f t="shared" si="7"/>
         <v>2.1596858638743455</v>
       </c>
       <c r="P13" s="4">
-        <f>I13/V13</f>
+        <f t="shared" si="8"/>
         <v>2.8846153846153846</v>
       </c>
       <c r="Q13" s="4">
-        <f>O13/L13/100</f>
+        <f t="shared" si="9"/>
         <v>-8.5937499999999986E-2</v>
       </c>
       <c r="R13" s="4">
-        <f>P13/M13/100</f>
+        <f t="shared" si="10"/>
         <v>8.4183673469387793E-2</v>
       </c>
-      <c r="U13" s="4">
+      <c r="S13" s="14"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="W13" s="4">
         <v>11.46</v>
       </c>
-      <c r="V13" s="4">
+      <c r="X13" s="4">
         <v>8.58</v>
       </c>
-      <c r="W13" s="4">
+      <c r="Y13" s="4">
         <v>11.52</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Z13" s="4">
         <v>123.85</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="AA13" s="4">
         <v>146.26</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AB13" s="4">
         <v>194.62</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3736,56 +3801,64 @@
         <v>11.7</v>
       </c>
       <c r="J14" s="6">
-        <f>Y14/X14-1</f>
+        <f t="shared" si="3"/>
         <v>0.35430247718383301</v>
       </c>
       <c r="K14" s="6">
-        <f>Z14/Y14-1</f>
+        <f t="shared" si="4"/>
         <v>0.69458483754512645</v>
       </c>
       <c r="L14" s="5">
-        <f>V14/U14-1</f>
+        <f t="shared" si="5"/>
         <v>-0.45622119815668194</v>
       </c>
       <c r="M14" s="5">
-        <f>W14/V14-1</f>
+        <f t="shared" si="6"/>
         <v>-0.30169491525423731</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="4">
-        <f>I14/U14</f>
+        <f t="shared" si="7"/>
         <v>-1.0783410138248848</v>
       </c>
       <c r="P14" s="4">
-        <f>I14/V14</f>
+        <f t="shared" si="8"/>
         <v>-1.9830508474576269</v>
       </c>
       <c r="Q14" s="4">
-        <f>O14/L14/100</f>
+        <f t="shared" si="9"/>
         <v>2.3636363636363643E-2</v>
       </c>
       <c r="R14" s="4">
-        <f>P14/M14/100</f>
+        <f t="shared" si="10"/>
         <v>6.5730337078651682E-2</v>
       </c>
-      <c r="U14" s="4">
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="W14" s="4">
         <v>-10.85</v>
       </c>
-      <c r="V14" s="4">
+      <c r="X14" s="4">
         <v>-5.9</v>
       </c>
-      <c r="W14" s="4">
+      <c r="Y14" s="4">
         <v>-4.12</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Z14" s="4">
         <v>30.68</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="AA14" s="4">
         <v>41.55</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>70.41</v>
       </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
